--- a/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-31.17433267108245</v>
+        <v>-30.4196233993562</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-30.90199525151449</v>
+        <v>-30.49953718133025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-28.67401231182478</v>
+        <v>-28.77482300297671</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-18.55525873747726</v>
+        <v>-18.36875382962254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-19.09224206233667</v>
+        <v>-19.20106885926638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-20.15461271401256</v>
+        <v>-20.30414458992027</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.813016567705758</v>
+        <v>-0.8130165677057579</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.7937637880149362</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8844221931799895</v>
+        <v>-0.8824743544817187</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8548213837705528</v>
+        <v>-0.8549481307745369</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.852115444256535</v>
+        <v>-0.8538640980059143</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.709669827687664</v>
+        <v>-0.7059002707209349</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.706895666629889</v>
+        <v>-0.7142302688531534</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.7367530417994639</v>
+        <v>-0.7395231009345652</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>-8.882993824455978</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-8.812255327919241</v>
+        <v>-8.812255327919244</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-8.84938661429055</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.75558498925751</v>
+        <v>-12.48904254022967</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.65404544604493</v>
+        <v>-12.70517714767302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.51382992439217</v>
+        <v>-11.63698524085106</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.912030464584224</v>
+        <v>-4.584430571260944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.256373953889302</v>
+        <v>-5.355368079436928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.113847361288053</v>
+        <v>-5.907172351535479</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>-0.6167476757473064</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.5943687122262592</v>
+        <v>-0.5943687122262594</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.6053294369775211</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7677046293183399</v>
+        <v>-0.7693264385149511</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7185589630620806</v>
+        <v>-0.7192863915219272</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7140452802735296</v>
+        <v>-0.7067568406601485</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3935304071346498</v>
+        <v>-0.3579701138000779</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.4315235908077319</v>
+        <v>-0.4188418299964533</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.46348785993264</v>
+        <v>-0.4579175898937365</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>4.914848608545086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.308636573776216</v>
+        <v>8.308636573776207</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.966680486133104</v>
+        <v>7.055418400762457</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.351800015131412</v>
+        <v>-0.6270941285943546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.454553745437562</v>
+        <v>4.522352223101214</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.72916153470393</v>
+        <v>17.10117479668847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.74674133673258</v>
+        <v>9.460449523486608</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.00703326083396</v>
+        <v>12.19141164146381</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>0.3174711895535077</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6882224054627617</v>
+        <v>0.688222405462761</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6180619938193481</v>
+        <v>0.6493743739422202</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0723969419682831</v>
+        <v>-0.03456183685783078</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3012069691829676</v>
+        <v>0.319196926025578</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.541053693570225</v>
+        <v>2.736310337598231</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8081503233176627</v>
+        <v>0.7664656086570206</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.210095939408572</v>
+        <v>1.23448276410775</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-3.994664945577633</v>
+        <v>-3.994664945577632</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-15.48290995203062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-9.86496693487293</v>
+        <v>-9.864966934872928</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.838767225272411</v>
+        <v>-9.532414587103851</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-21.18247999064078</v>
+        <v>-20.95811925961263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-13.92377356460216</v>
+        <v>-13.97415694775698</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.625250511541382</v>
+        <v>1.456643601686199</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-9.631324559503577</v>
+        <v>-9.96099715231893</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.800703095152397</v>
+        <v>-5.708488489440755</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.2516511298892471</v>
+        <v>-0.251651129889247</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.5528156171783846</v>
+        <v>-0.5528156171783845</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4466756363077901</v>
+        <v>-0.4466756363077899</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5195590641978217</v>
+        <v>-0.5141757584478317</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6703248577106886</v>
+        <v>-0.6574451446650764</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5767579638465397</v>
+        <v>-0.5669212880030223</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1414605811364395</v>
+        <v>0.1070158333294102</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3945196908194984</v>
+        <v>-0.3913935143366498</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2875916219091673</v>
+        <v>-0.2823626404571574</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-34.14718883960198</v>
+        <v>-34.52507962610824</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-39.96454602495681</v>
+        <v>-39.44531897290157</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-35.19190521928629</v>
+        <v>-34.52580714622177</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-19.58552784982473</v>
+        <v>-20.43767863392334</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-25.49862995733451</v>
+        <v>-26.33069580935967</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-25.20943719689583</v>
+        <v>-24.96713015223174</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8702865353324308</v>
+        <v>-0.8724301818355301</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8500599575666291</v>
+        <v>-0.8479284855974101</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8437331027101532</v>
+        <v>-0.8374886846811976</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.6660685357342641</v>
+        <v>-0.6817116729190579</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.7127013854861065</v>
+        <v>-0.7173173437355783</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.7329885563276792</v>
+        <v>-0.7339887425426351</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>3.702494529688377</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.379487623263789</v>
+        <v>1.379487623263784</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>2.51130338593287</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.124930127442668</v>
+        <v>-2.945686598124174</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.318168608855717</v>
+        <v>-5.249957646156418</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.190777333399851</v>
+        <v>-2.059018617360595</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.1459975088641</v>
+        <v>9.917309952682055</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.395421082395752</v>
+        <v>7.491827348756836</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.054456244754054</v>
+        <v>6.904775003460514</v>
       </c>
     </row>
     <row r="37">
@@ -1148,7 +1148,7 @@
         <v>0.1991652574214761</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.06391645493074728</v>
+        <v>0.06391645493074703</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.1248690480554554</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1391379432134274</v>
+        <v>-0.1416762053383811</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2027133811354407</v>
+        <v>-0.2131885304687624</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0963355181188968</v>
+        <v>-0.08960365951089293</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.674819725561255</v>
+        <v>0.6609746221646156</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4261717612121058</v>
+        <v>0.4289279827466355</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.400774151929194</v>
+        <v>0.4036224823437995</v>
       </c>
     </row>
     <row r="40">
@@ -1203,7 +1203,7 @@
         <v>-6.876955898107013</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-7.560066030347712</v>
+        <v>-7.560066030347715</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-7.206035916182898</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-11.09370949463456</v>
+        <v>-11.16328435072347</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.78114025730891</v>
+        <v>-11.7627993695998</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.639991968162088</v>
+        <v>-9.995910407160245</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-2.887751284335232</v>
+        <v>-2.681065704413621</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-3.589566255706434</v>
+        <v>-3.790398611781749</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.214452800671683</v>
+        <v>-4.519401571564389</v>
       </c>
     </row>
     <row r="43">
@@ -1254,7 +1254,7 @@
         <v>-0.4210011028711463</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.364104428287455</v>
+        <v>-0.3641044282874552</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.3874009187193434</v>
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5855117127531539</v>
+        <v>-0.5868560984209207</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.502622285740059</v>
+        <v>-0.4973174813661456</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4835419554509412</v>
+        <v>-0.503282837773732</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1906376079519498</v>
+        <v>-0.1850507557415834</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1950781259032814</v>
+        <v>-0.2024783262434309</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.251361860527033</v>
+        <v>-0.266667795617798</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>2.123331230026743</v>
+        <v>2.123331230026737</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>8.722519591266664</v>
+        <v>8.72251959126667</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5.463206334191481</v>
+        <v>5.46320633419147</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.040801972025286</v>
+        <v>-1.797171577609569</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4.803654480281456</v>
+        <v>4.103888253070032</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.379077683974629</v>
+        <v>2.626200437575876</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.1505582755181</v>
+        <v>5.981823052873431</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.02850432090257</v>
+        <v>12.96001364686145</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8.194786857847706</v>
+        <v>8.372062805687671</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>0.1074809164267519</v>
+        <v>0.1074809164267517</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.3423097048833928</v>
+        <v>0.342309704883393</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.2406720000389743</v>
+        <v>0.2406720000389738</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.09500171299553528</v>
+        <v>-0.08370856412725938</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1695341273260016</v>
+        <v>0.1489333314817049</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1005766403072027</v>
+        <v>0.1105609673078421</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3498563560341572</v>
+        <v>0.3373347727527776</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5634379978839913</v>
+        <v>0.5635048154040637</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3895686602747496</v>
+        <v>0.4079046691564712</v>
       </c>
     </row>
     <row r="52">
@@ -1415,10 +1415,10 @@
         <v>-5.122668540195255</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-6.175188067112561</v>
+        <v>-6.175188067112558</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-5.650301751988457</v>
+        <v>-5.650301751988454</v>
       </c>
     </row>
     <row r="53">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-7.018043121369602</v>
+        <v>-6.899821655173303</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-7.999037875291302</v>
+        <v>-7.970715411822502</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-6.936255734009094</v>
+        <v>-6.875942366048174</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-3.348223306718327</v>
+        <v>-3.27194112580638</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-4.442741291244319</v>
+        <v>-4.426875160246708</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-4.530428322653404</v>
+        <v>-4.338153619713433</v>
       </c>
     </row>
     <row r="55">
@@ -1466,10 +1466,10 @@
         <v>-0.2766102295085868</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.2631551724934517</v>
+        <v>-0.2631551724934516</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.268480808787009</v>
+        <v>-0.2684808087870089</v>
       </c>
     </row>
     <row r="56">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.3564808188736405</v>
+        <v>-0.3534834662968328</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3249140815589721</v>
+        <v>-0.3267519987808269</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3193139738026058</v>
+        <v>-0.3174668131469693</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1897717260031792</v>
+        <v>-0.1865903772393836</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1964622554162805</v>
+        <v>-0.1965157066823114</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.222729234033664</v>
+        <v>-0.2150297491271899</v>
       </c>
     </row>
     <row r="58">
